--- a/output/DIVIDEND/rebalance/rebalance_20240930.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60.18%</t>
+          <t>60.08%</t>
         </is>
       </c>
     </row>
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02905163517691547</v>
+        <v>0.0288801431905802</v>
       </c>
       <c r="C4" t="n">
         <v>0.02269216334866509</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.006359471828250387</v>
+        <v>-0.00618797984191511</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6006,13 +6006,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01662232132797405</v>
+        <v>0.01653363556805134</v>
       </c>
       <c r="C6" t="n">
         <v>0.02255251926651946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005930197938545406</v>
+        <v>0.006018883698468116</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6069,13 +6069,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01720464541794115</v>
+        <v>0.01711151017973516</v>
       </c>
       <c r="C9" t="n">
         <v>0.02197648742766873</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004771842009727582</v>
+        <v>0.004864977247933569</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6174,13 +6174,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02141948851419747</v>
+        <v>0.02127574055176932</v>
       </c>
       <c r="C14" t="n">
         <v>0.02120844497586775</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0002110435383297152</v>
+        <v>-6.729557590156102e-05</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6195,13 +6195,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02413501381813762</v>
+        <v>0.0239942899634862</v>
       </c>
       <c r="C15" t="n">
         <v>0.02101643436291751</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.003118579455220104</v>
+        <v>-0.00297785560056869</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01810446528564786</v>
+        <v>0.01889068137688637</v>
       </c>
       <c r="C16" t="n">
         <v>0.02085933477050368</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002754869484855822</v>
+        <v>0.001968653393617313</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6258,13 +6258,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0230052257774091</v>
+        <v>0.02339749674090663</v>
       </c>
       <c r="C18" t="n">
         <v>0.0205276800754078</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.002477545702001292</v>
+        <v>-0.002869816665498827</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02261385879226544</v>
+        <v>0.02249280960685402</v>
       </c>
       <c r="C19" t="n">
         <v>0.0204927690548714</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002121089737394045</v>
+        <v>-0.002000040551982628</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6300,13 +6300,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01973388130203224</v>
+        <v>0.01962647823099523</v>
       </c>
       <c r="C20" t="n">
         <v>0.02045785803433499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0007239767323027474</v>
+        <v>0.0008313798033397594</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6363,17 +6363,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0202497847504485</v>
+        <v>0.02012803969256685</v>
       </c>
       <c r="C23" t="n">
         <v>0.02019602538031193</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.375937013657461e-05</v>
+        <v>6.798568774507574e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6405,17 +6405,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01983255857778044</v>
+        <v>0.02015535286384276</v>
       </c>
       <c r="C25" t="n">
         <v>0.02012620333923911</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0002936447614586765</v>
+        <v>-2.914952460364093e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6426,13 +6426,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02055607588740326</v>
+        <v>0.02088982241696901</v>
       </c>
       <c r="C26" t="n">
         <v>0.02009129231870271</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0004647835687005553</v>
+        <v>-0.0007985300982663</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02172830179711958</v>
+        <v>0.02160813979458258</v>
       </c>
       <c r="C27" t="n">
         <v>0.0200563812981663</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.001671920498953285</v>
+        <v>-0.001551758496416276</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01688310076353462</v>
+        <v>0.01679169651693075</v>
       </c>
       <c r="C29" t="n">
         <v>0.01969854333766812</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002815442574133502</v>
+        <v>0.002906846820737372</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01783367330574073</v>
+        <v>0.01772456879447584</v>
       </c>
       <c r="C32" t="n">
         <v>0.01925342782582892</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00141975452008819</v>
+        <v>0.00152885903135308</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6573,13 +6573,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01749708132787374</v>
+        <v>0.01823714349591285</v>
       </c>
       <c r="C33" t="n">
         <v>0.01921851680529251</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001721435477418772</v>
+        <v>0.0009813733093796614</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6594,13 +6594,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02542814573929411</v>
+        <v>0.0252783734304955</v>
       </c>
       <c r="C34" t="n">
         <v>0.01920106129502431</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006227084444269809</v>
+        <v>-0.006077312135471191</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01680188106840045</v>
+        <v>0.0167029425182728</v>
       </c>
       <c r="C38" t="n">
         <v>0.01867739598697819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001875514918577736</v>
+        <v>0.001974453468705388</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6783,13 +6783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02261240312499241</v>
+        <v>0.02248185579971139</v>
       </c>
       <c r="C43" t="n">
         <v>0.01815373067893207</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.004458672446060338</v>
+        <v>-0.004328125120779319</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6825,13 +6825,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01611692914907809</v>
+        <v>0.01602557540645317</v>
       </c>
       <c r="C45" t="n">
         <v>0.01799663108651824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001879701937440147</v>
+        <v>0.00197105568006507</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6846,13 +6846,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02130307478740606</v>
+        <v>0.02118077591064964</v>
       </c>
       <c r="C46" t="n">
         <v>0.01789189802490901</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003411176762497047</v>
+        <v>-0.003288877885740629</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02024771874748837</v>
+        <v>0.02013278576633233</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02024771874748837</v>
+        <v>-0.02013278576633233</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6993,13 +6993,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02087111240645916</v>
+        <v>0.02075515052777959</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02087111240645916</v>
+        <v>-0.02075515052777959</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7014,13 +7014,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02134549340624876</v>
+        <v>0.02122257973454498</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02134549340624876</v>
+        <v>-0.02122257973454498</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7035,13 +7035,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0195588358381608</v>
+        <v>0.0194444155229785</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0195588358381608</v>
+        <v>-0.0194444155229785</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7056,13 +7056,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01917863197826473</v>
+        <v>0.01906504981855773</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01917863197826473</v>
+        <v>-0.01906504981855773</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01860022104997022</v>
+        <v>0.01850538728580536</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01860022104997022</v>
+        <v>-0.01850538728580536</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7098,13 +7098,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01985229396466517</v>
+        <v>0.01973769619295885</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01985229396466517</v>
+        <v>-0.01973769619295885</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7119,13 +7119,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01476545500121498</v>
+        <v>0.014700252216943</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01476545500121498</v>
+        <v>-0.014700252216943</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7140,13 +7140,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01987278499926357</v>
+        <v>0.01976091570927934</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01987278499926357</v>
+        <v>-0.01976091570927934</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01756377416799846</v>
+        <v>0.01746779308715229</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01756377416799846</v>
+        <v>-0.01746779308715229</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02299613481503038</v>
+        <v>0.02284998076289188</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02299613481503038</v>
+        <v>-0.02284998076289188</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7203,13 +7203,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01725404470634371</v>
+        <v>0.01716020325871486</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01725404470634371</v>
+        <v>-0.01716020325871486</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7224,13 +7224,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02164217137671048</v>
+        <v>0.02152039281747841</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02164217137671048</v>
+        <v>-0.02152039281747841</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7245,13 +7245,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02108161843183149</v>
+        <v>0.02095946241062022</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02108161843183149</v>
+        <v>-0.02095946241062022</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7266,13 +7266,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01644453345907763</v>
+        <v>0.01690153437114868</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01644453345907763</v>
+        <v>-0.01690153437114868</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02080771687584896</v>
+        <v>0.02069500521128344</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02080771687584896</v>
+        <v>-0.02069500521128344</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02146549877547072</v>
+        <v>0.02134376635239646</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02146549877547072</v>
+        <v>-0.02134376635239646</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02570503191020534</v>
+        <v>0.02556241736437724</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.02570503191020534</v>
+        <v>-0.02556241736437724</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7350,13 +7350,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01822778942447889</v>
+        <v>0.01812796734188328</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01822778942447889</v>
+        <v>-0.01812796734188328</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02053702322679704</v>
+        <v>0.02042558856549861</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02053702322679704</v>
+        <v>-0.02042558856549861</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02157285115762003</v>
+        <v>0.02145003822880654</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02157285115762003</v>
+        <v>-0.02145003822880654</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7413,13 +7413,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02457740538406481</v>
+        <v>0.02444852823937976</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02457740538406481</v>
+        <v>-0.02444852823937976</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7434,13 +7434,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01830000942716232</v>
+        <v>0.01889710435572348</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01830000942716232</v>
+        <v>-0.01889710435572348</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7455,13 +7455,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01606207393395818</v>
+        <v>0.01597806556165318</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01606207393395818</v>
+        <v>-0.01597806556165318</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7476,13 +7476,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01733336040471076</v>
+        <v>0.01795159043592787</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01733336040471076</v>
+        <v>-0.01795159043592787</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01776624608897929</v>
+        <v>0.01822100471374355</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01776624608897929</v>
+        <v>-0.01822100471374355</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7518,13 +7518,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01889416955035599</v>
+        <v>0.01879213516018946</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01889416955035599</v>
+        <v>-0.01879213516018946</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7539,13 +7539,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0209560313687651</v>
+        <v>0.02083116293834858</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.0209560313687651</v>
+        <v>-0.02083116293834858</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7560,13 +7560,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01778642243126226</v>
+        <v>0.01768495399747484</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01778642243126226</v>
+        <v>-0.01768495399747484</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>

--- a/output/DIVIDEND/rebalance/rebalance_20240930.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60.08%</t>
+          <t>60.64%</t>
         </is>
       </c>
     </row>
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0288801431905802</v>
+        <v>0.02949561156600107</v>
       </c>
       <c r="C4" t="n">
         <v>0.02269216334866509</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00618797984191511</v>
+        <v>-0.006803448217335986</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6006,13 +6006,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01653363556805134</v>
+        <v>0.01581047429241968</v>
       </c>
       <c r="C6" t="n">
         <v>0.02255251926651946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006018883698468116</v>
+        <v>0.006742044974099783</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6069,13 +6069,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01711151017973516</v>
+        <v>0.01648693667810214</v>
       </c>
       <c r="C9" t="n">
         <v>0.02197648742766873</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004864977247933569</v>
+        <v>0.005489550749566585</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6174,17 +6174,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02127574055176932</v>
+        <v>0.02062560523555153</v>
       </c>
       <c r="C14" t="n">
         <v>0.02120844497586775</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.729557590156102e-05</v>
+        <v>0.0005828397403162232</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6195,13 +6195,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0239942899634862</v>
+        <v>0.02450385282565836</v>
       </c>
       <c r="C15" t="n">
         <v>0.02101643436291751</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.00297785560056869</v>
+        <v>-0.003487418462740848</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01889068137688637</v>
+        <v>0.01747438805007383</v>
       </c>
       <c r="C16" t="n">
         <v>0.02085933477050368</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001968653393617313</v>
+        <v>0.003384946720429851</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6258,13 +6258,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02339749674090663</v>
+        <v>0.02281256290915181</v>
       </c>
       <c r="C18" t="n">
         <v>0.0205276800754078</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.002869816665498827</v>
+        <v>-0.00228488283374401</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02249280960685402</v>
+        <v>0.02295945102171282</v>
       </c>
       <c r="C19" t="n">
         <v>0.0204927690548714</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002000040551982628</v>
+        <v>-0.002466681966841428</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6300,13 +6300,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01962647823099523</v>
+        <v>0.02003546079350546</v>
       </c>
       <c r="C20" t="n">
         <v>0.02045785803433499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0008313798033397594</v>
+        <v>0.0004223972408295279</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6363,17 +6363,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02012803969256685</v>
+        <v>0.02055924844357682</v>
       </c>
       <c r="C23" t="n">
         <v>0.02019602538031193</v>
       </c>
       <c r="D23" t="n">
-        <v>6.798568774507574e-05</v>
+        <v>-0.0003632230632648961</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6405,17 +6405,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02015535286384276</v>
+        <v>0.01969038751536853</v>
       </c>
       <c r="C25" t="n">
         <v>0.02012620333923911</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.914952460364093e-05</v>
+        <v>0.0004358158238705889</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6426,13 +6426,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02088982241696901</v>
+        <v>0.02041052393472336</v>
       </c>
       <c r="C26" t="n">
         <v>0.02009129231870271</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0007985300982663</v>
+        <v>-0.0003192316160206508</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02160813979458258</v>
+        <v>0.02206036066107341</v>
       </c>
       <c r="C27" t="n">
         <v>0.0200563812981663</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.001551758496416276</v>
+        <v>-0.002003979362907107</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01679169651693075</v>
+        <v>0.01627741418596228</v>
       </c>
       <c r="C29" t="n">
         <v>0.01969854333766812</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002906846820737372</v>
+        <v>0.003421129151705841</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01772456879447584</v>
+        <v>0.01810621321030025</v>
       </c>
       <c r="C32" t="n">
         <v>0.01925342782582892</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00152885903135308</v>
+        <v>0.001147214615528667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6573,13 +6573,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01823714349591285</v>
+        <v>0.01690867038919761</v>
       </c>
       <c r="C33" t="n">
         <v>0.01921851680529251</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0009813733093796614</v>
+        <v>0.002309846416094902</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6594,13 +6594,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0252783734304955</v>
+        <v>0.02581674680280483</v>
       </c>
       <c r="C34" t="n">
         <v>0.01920106129502431</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006077312135471191</v>
+        <v>-0.006615685507780526</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0167029425182728</v>
+        <v>0.01624983735949773</v>
       </c>
       <c r="C38" t="n">
         <v>0.01867739598697819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001974453468705388</v>
+        <v>0.00242755862748046</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6783,13 +6783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02248185579971139</v>
+        <v>0.02197669150922727</v>
       </c>
       <c r="C43" t="n">
         <v>0.01815373067893207</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.004328125120779319</v>
+        <v>-0.003822960830295201</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6825,13 +6825,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01602557540645317</v>
+        <v>0.01562420370749966</v>
       </c>
       <c r="C45" t="n">
         <v>0.01799663108651824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00197105568006507</v>
+        <v>0.002372427379018577</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6846,13 +6846,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02118077591064964</v>
+        <v>0.02162863519606933</v>
       </c>
       <c r="C46" t="n">
         <v>0.01789189802490901</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003288877885740629</v>
+        <v>-0.003736737171160315</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02013278576633233</v>
+        <v>0.02055715086729807</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02013278576633233</v>
+        <v>-0.02055715086729807</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6993,13 +6993,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02075515052777959</v>
+        <v>0.0211900714277325</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02075515052777959</v>
+        <v>-0.0211900714277325</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7014,13 +7014,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02122257973454498</v>
+        <v>0.02167170206982468</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02122257973454498</v>
+        <v>-0.02167170206982468</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7035,13 +7035,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0194444155229785</v>
+        <v>0.01985774022881778</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0194444155229785</v>
+        <v>-0.01985774022881778</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7056,13 +7056,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01906504981855773</v>
+        <v>0.01947172597181996</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01906504981855773</v>
+        <v>-0.01947172597181996</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01850538728580536</v>
+        <v>0.01888447558255231</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01850538728580536</v>
+        <v>-0.01888447558255231</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7098,13 +7098,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01973769619295885</v>
+        <v>0.02015568307635624</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01973769619295885</v>
+        <v>-0.02015568307635624</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7119,13 +7119,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.014700252216943</v>
+        <v>0.01465213850969212</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.014700252216943</v>
+        <v>-0.01465213850969212</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7140,13 +7140,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01976091570927934</v>
+        <v>0.0201764872615052</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01976091570927934</v>
+        <v>-0.0201764872615052</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01746779308715229</v>
+        <v>0.01783218938753208</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01746779308715229</v>
+        <v>-0.01783218938753208</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02284998076289188</v>
+        <v>0.02334756910903584</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02284998076289188</v>
+        <v>-0.02334756910903584</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7203,13 +7203,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01716020325871486</v>
+        <v>0.01684654927897979</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01716020325871486</v>
+        <v>-0.01684654927897979</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7224,13 +7224,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02152039281747841</v>
+        <v>0.02197291396800663</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02152039281747841</v>
+        <v>-0.02197291396800663</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7245,13 +7245,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02095946241062022</v>
+        <v>0.02140379447357396</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02095946241062022</v>
+        <v>-0.02140379447357396</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7266,13 +7266,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01690153437114868</v>
+        <v>0.01617769719843542</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01690153437114868</v>
+        <v>-0.01617769719843542</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02069500521128344</v>
+        <v>0.02112570706632868</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02069500521128344</v>
+        <v>-0.02112570706632868</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02134376635239646</v>
+        <v>0.02112502785965398</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02134376635239646</v>
+        <v>-0.02112502785965398</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02556241736437724</v>
+        <v>0.02609786443681962</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.02556241736437724</v>
+        <v>-0.02609786443681962</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7350,13 +7350,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01812796734188328</v>
+        <v>0.0178589078039177</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01812796734188328</v>
+        <v>-0.0178589078039177</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02042558856549861</v>
+        <v>0.02085087659027469</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02042558856549861</v>
+        <v>-0.02085087659027469</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02145003822880654</v>
+        <v>0.02190253437513654</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02145003822880654</v>
+        <v>-0.02190253437513654</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7413,13 +7413,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02444852823937976</v>
+        <v>0.02495300516111901</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02444852823937976</v>
+        <v>-0.02495300516111901</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7434,13 +7434,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01889710435572348</v>
+        <v>0.01786741606580901</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01889710435572348</v>
+        <v>-0.01786741606580901</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7455,13 +7455,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01597806556165318</v>
+        <v>0.01565672567707046</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01597806556165318</v>
+        <v>-0.01565672567707046</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7476,13 +7476,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01795159043592787</v>
+        <v>0.01686601077370292</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01795159043592787</v>
+        <v>-0.01686601077370292</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01822100471374355</v>
+        <v>0.01746731481186712</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01822100471374355</v>
+        <v>-0.01746731481186712</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7518,13 +7518,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01879213516018946</v>
+        <v>0.01918291629802282</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01879213516018946</v>
+        <v>-0.01918291629802282</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7539,13 +7539,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02083116293834858</v>
+        <v>0.0212762881488056</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02083116293834858</v>
+        <v>-0.0212762881488056</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7560,13 +7560,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01768495399747484</v>
+        <v>0.01805824023283157</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01768495399747484</v>
+        <v>-0.01805824023283157</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
